--- a/output/income_statement.xlsx
+++ b/output/income_statement.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Income Statement" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income Statement" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="7">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D8" s="8" t="n">
-        <v>10500</v>
+        <v>12000</v>
       </c>
       <c r="E8" s="6" t="n"/>
     </row>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D17" s="13" t="n">
-        <v>7800</v>
+        <v>9300</v>
       </c>
       <c r="E17" s="6" t="n"/>
     </row>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="D28" s="15" t="n">
-        <v>1950</v>
+        <v>3450</v>
       </c>
     </row>
   </sheetData>
